--- a/charts.xlsx
+++ b/charts.xlsx
@@ -9,12 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="Execution Time Chart" sheetId="2" r:id="rId2"/>
-    <sheet name="Parallelization Time Chart" sheetId="3" r:id="rId3"/>
+    <sheet name="Bad Parallelization" sheetId="3" r:id="rId3"/>
+    <sheet name="Iterations to Scheduling" sheetId="4" r:id="rId4"/>
+    <sheet name="Few Particle Scheduling" sheetId="5" r:id="rId5"/>
+    <sheet name="Moderate Particle, Iteration" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="26">
   <si>
     <t>Particle Swarm Analysis</t>
   </si>
@@ -63,6 +66,48 @@
   <si>
     <t>10000S</t>
   </si>
+  <si>
+    <t>Speedup</t>
+  </si>
+  <si>
+    <t>Parallel Efficiency</t>
+  </si>
+  <si>
+    <t>./swarm 0.5 0.5 0.1 &lt;particles&gt; 10000 &lt;cores&gt; 0</t>
+  </si>
+  <si>
+    <t>5-S</t>
+  </si>
+  <si>
+    <t>6-S</t>
+  </si>
+  <si>
+    <t>7-S</t>
+  </si>
+  <si>
+    <t>./swarm 0.5 0.5 0.1 &lt;parts&gt; &lt;iters&gt; &lt;cores&gt; 0</t>
+  </si>
+  <si>
+    <t>4 Particles</t>
+  </si>
+  <si>
+    <t>8 Particles</t>
+  </si>
+  <si>
+    <t>12 Particles</t>
+  </si>
+  <si>
+    <t>16 Particles</t>
+  </si>
+  <si>
+    <t>1000-S</t>
+  </si>
+  <si>
+    <t>3000-S</t>
+  </si>
+  <si>
+    <t>5000-S</t>
+  </si>
 </sst>
 </file>
 
@@ -71,7 +116,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00;[Red]&quot;-&quot;[$$-409]#,##0.00"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,16 +157,46 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66FFFF"/>
+        <bgColor rgb="FF66FFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="20">
+  <borders count="55">
     <border>
       <left/>
       <right/>
@@ -390,6 +465,489 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -403,7 +961,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -477,6 +1035,252 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="53" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="54" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Heading" xfId="2"/>
@@ -520,17 +1324,29 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr sz="2000">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="2000">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
               <a:t>Particle Swarm</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
+              <a:rPr lang="en-US" sz="2000" baseline="0">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
               <a:t> Optimization Execution Times</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-US" sz="2000">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -538,7 +1354,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.2477749603360864"/>
+          <c:x val="0.21992625922466583"/>
           <c:y val="8.2801308028498791E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -1946,12 +2762,12 @@
             </c:spPr>
           </c:bandFmt>
         </c:bandFmts>
-        <c:axId val="458683080"/>
-        <c:axId val="458685040"/>
-        <c:axId val="517323512"/>
+        <c:axId val="373419080"/>
+        <c:axId val="373419464"/>
+        <c:axId val="372975536"/>
       </c:surface3DChart>
       <c:catAx>
-        <c:axId val="458683080"/>
+        <c:axId val="373419080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1964,21 +2780,32 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1600" b="1">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1600" b="1">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
                   <a:t>Number</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:rPr lang="en-US" sz="1600" b="1" baseline="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
                   <a:t> of Iterations</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="en-US" sz="1600" b="1">
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2003,19 +2830,19 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="458685040"/>
+        <c:crossAx val="373419464"/>
         <c:crossesAt val="1.0000000000000002E-3"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2023,7 +2850,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="458685040"/>
+        <c:axId val="373419464"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
@@ -2052,16 +2879,21 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1600">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1600">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
                   <a:t>Execution Time (Seconds)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2080,25 +2912,25 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="458683080"/>
+        <c:crossAx val="373419080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="4"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="517323512"/>
+        <c:axId val="372975536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2111,32 +2943,40 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr>
+                  <a:defRPr sz="1600">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US">
+                  <a:rPr lang="en-US" sz="1600">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:rPr>
                   <a:t>Number of</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" baseline="0">
+                  <a:rPr lang="en-US" sz="1600" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:rPr>
                   <a:t> Particles</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US">
+                <a:endParaRPr lang="en-US" sz="1600">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:endParaRPr>
               </a:p>
             </c:rich>
@@ -2146,7 +2986,7 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="0.9342072416548246"/>
-              <c:y val="0.69172613455443133"/>
+              <c:y val="0.55035804767650665"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -2172,19 +3012,19 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="458685040"/>
+        <c:crossAx val="373419464"/>
         <c:crossesAt val="1.0000000000000002E-3"/>
         <c:tickLblSkip val="2"/>
       </c:serAx>
@@ -2241,20 +3081,29 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr sz="2000">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Particle</a:t>
+              <a:rPr lang="en-US" sz="2000">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Poorly Parallelized</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Swarm Optimization </a:t>
+              <a:rPr lang="en-US" sz="2000" baseline="0">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t> Variant Times</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Parallel Times</a:t>
-            </a:r>
+            <a:endParaRPr lang="en-US" sz="2000">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2262,8 +3111,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.26062933448067366"/>
-          <c:y val="0.1009772049128034"/>
+          <c:x val="0.26796033201886399"/>
+          <c:y val="0.10501506326475817"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -3039,12 +3888,12 @@
             </c:spPr>
           </c:bandFmt>
         </c:bandFmts>
-        <c:axId val="570977200"/>
-        <c:axId val="570976416"/>
-        <c:axId val="456094120"/>
+        <c:axId val="373022280"/>
+        <c:axId val="330431072"/>
+        <c:axId val="373061248"/>
       </c:surface3DChart>
       <c:catAx>
-        <c:axId val="570977200"/>
+        <c:axId val="373022280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3057,37 +3906,44 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr>
+                  <a:defRPr sz="1600">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US">
+                  <a:rPr lang="en-US" sz="1600">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:rPr>
                   <a:t>Iterations</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" baseline="0">
+                  <a:rPr lang="en-US" sz="1600" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:rPr>
                   <a:t> and Cores</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US">
+                <a:endParaRPr lang="en-US" sz="1600">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -3112,19 +3968,19 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="570976416"/>
+        <c:crossAx val="330431072"/>
         <c:crossesAt val="1.0000000000000002E-3"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3132,7 +3988,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="570976416"/>
+        <c:axId val="330431072"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3160,20 +4016,27 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1600">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US">
+                  <a:rPr lang="en-US" sz="1600">
                     <a:solidFill>
-                      <a:schemeClr val="tx1"/>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:rPr>
                   <a:t>Execution Time (Seconds)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -3192,24 +4055,24 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="570977200"/>
+        <c:crossAx val="373022280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="456094120"/>
+        <c:axId val="373061248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3229,17 +4092,18 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US">
+                  <a:rPr lang="en-US" sz="1600">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:rPr>
                   <a:t>Scheduling Type</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -3263,19 +4127,19 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="570976416"/>
+        <c:crossAx val="330431072"/>
         <c:crossesAt val="1.0000000000000002E-3"/>
       </c:serAx>
     </c:plotArea>
@@ -3296,6 +4160,3148 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000" b="1" i="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Scheduling Effects for Iteration Orders of Magnitude</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15509741447950109"/>
+          <c:y val="0.11309446950233981"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="30"/>
+      <c:rotY val="0"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:surface3DChart>
+        <c:wireframe val="1"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$B$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Dynamic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Data!$C$36:$Q$36</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>100S</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000S</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10000S</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>100003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>100004</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$C$38:$Q$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>5.7119329999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.804053E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1850749999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.7635810000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.4347960000000005E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.8545355000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.8348960999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4285365E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5516090999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.3369225E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.28550113599999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.28935724600000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.109112769</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.2193225E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.7917709999999997E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$B$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Dynamic, 2 Chunk</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Data!$C$36:$Q$36</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>100S</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000S</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10000S</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>100003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>100004</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$C$39:$Q$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>5.7119329999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.5599220000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1626570000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.7364259999999994E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.2426729999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.8545355000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.2256666000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4949596000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3791839E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.8451641000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.28550113599999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.29374805100000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.105893681</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.9805269000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.5581944000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$B$40</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Guided</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Data!$C$36:$Q$36</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>100S</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000S</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10000S</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>100003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>100004</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$C$40:$Q$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>5.7119329999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.1637699999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.315882E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0646218000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.2631290000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.8545355000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1243301000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5188984000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.7100530999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.6811215000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.28550113599999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.28771370200000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.107502744</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.7272766000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.6489209999999998E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$B$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Static</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Data!$C$36:$Q$36</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>100S</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000S</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10000S</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>100003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>100004</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$C$37:$Q$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>5.7119329999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.5745079999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.943551E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.5749559999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.6033429999999994E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.8545355000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.7733312E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4850357E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4665760999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.6782934999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.28550113599999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.27506465099999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.111986108</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.9783485000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.3617246E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:bandFmts>
+          <c:bandFmt>
+            <c:idx val="0"/>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="1"/>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="92D050"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="2"/>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="3"/>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="4"/>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="5"/>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="6"/>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="7"/>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="8"/>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="9"/>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="10"/>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="11"/>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="12"/>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="13"/>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="14"/>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:bandFmt>
+        </c:bandFmts>
+        <c:axId val="373131624"/>
+        <c:axId val="373131232"/>
+        <c:axId val="373105776"/>
+      </c:surface3DChart>
+      <c:catAx>
+        <c:axId val="373131624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Iterations</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" b="1" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> and Cores</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1600" b="1">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.37700101227085558"/>
+              <c:y val="0.82369698060665197"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="373131232"/>
+        <c:crossesAt val="1.0000000000000002E-3"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="373131232"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" b="1" i="0" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Execution Time (Seconds)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1600">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="373131624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="373105776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" b="1" i="0" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Scheduling Type</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1600">
+                  <a:effectLst/>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="373131232"/>
+        <c:crossesAt val="1.0000000000000002E-3"/>
+      </c:serAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000" b="1" i="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Few Particle Scheduling Effects</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.32805250559253391"/>
+          <c:y val="0.14742671917269295"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="30"/>
+      <c:rotY val="0"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:surface3DChart>
+        <c:wireframe val="1"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$B$54</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Static</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Data!$C$53:$Q$53</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>5-S</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6-S</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7-S</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$C$54:$Q$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>8.9235940999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.9343727999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.6136667999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4093249000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1310920000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.104311183</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.103397317</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.1501956999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.2706012999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.464241E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.12868179799999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.117852846</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.7684545000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.5317245999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.8873092999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$B$55</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Dynamic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Data!$C$53:$Q$53</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>5-S</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6-S</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7-S</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$C$55:$Q$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>8.9235940999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.2617347000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.1336636000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.2847179999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6485486999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.104311183</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.109022544</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.8608183999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.7560061999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.023472E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.12868179799999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.12664476399999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.3140068999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.8300603000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.4936212000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$B$56</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Dynamic, 2 Chunk</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Data!$C$53:$Q$53</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>5-S</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6-S</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7-S</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$C$56:$Q$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>8.9235940999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.8331057000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.1681304000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0912853000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.7064894999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.104311183</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.10909126700000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.7056437E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.6845988000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.0275825999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.12868179799999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.12855756199999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.1516579999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.9584501000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.4226702999999997E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$B$57</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Guided</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Data!$C$53:$Q$53</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>5-S</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6-S</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7-S</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$C$57:$Q$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>8.9235940999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.1217444999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.1302542999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.2349972999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.8132102999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.104311183</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.118100538</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.2870605000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.4288638000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.1575106999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.12868179799999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.12502797099999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.4549047000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.9652854000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.2556138999999998E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:bandFmts>
+          <c:bandFmt>
+            <c:idx val="1"/>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="2"/>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="92D050"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="3"/>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="4"/>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="5"/>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="6"/>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:bandFmt>
+        </c:bandFmts>
+        <c:axId val="373136328"/>
+        <c:axId val="373130840"/>
+        <c:axId val="373108744"/>
+      </c:surface3DChart>
+      <c:catAx>
+        <c:axId val="373136328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Iterations</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" b="1" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> and Cores</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1600" b="1">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.37700101227085558"/>
+              <c:y val="0.82369698060665197"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="373130840"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="373130840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" b="1" i="0" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Execution Time (Seconds)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1600">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="373136328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="373108744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" b="1" i="0" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Scheduling Type</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1600">
+                  <a:effectLst/>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="373130840"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000" b="1" i="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Moderate Particle and Iteration Count Times</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.2342463544803805"/>
+          <c:y val="0.13732899868141263"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="30"/>
+      <c:rotY val="0"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:surface3DChart>
+        <c:wireframe val="1"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$B$61</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4 Particles</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Data!$C$60:$Q$60</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1000-S</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3000-S</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5000-S</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$C$61:$Q$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1.0633294E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.121457E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.5389519999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0800094999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2778682E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.1633281000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.7546277000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.14147E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2733582E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.4534755E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.5509802E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.5664371E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.6214508999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.5739017000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.5846516000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$B$62</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8 Particles</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Data!$C$60:$Q$60</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1000-S</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3000-S</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5000-S</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$C$62:$Q$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1.5586009E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7026465000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.8186789999999994E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2542531000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3947535E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.7001437999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.7731054999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.8718727000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.7648493000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5194254000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.2043813000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.4761973E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.5874747999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.0040142E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.9326399000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$B$63</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>12 Particles</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Data!$C$60:$Q$60</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1000-S</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3000-S</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5000-S</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$C$63:$Q$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>2.1232475000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1430072000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.231202E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1712307999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5209355000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.4661211000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.636422E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.4605333E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9075306E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.7999893999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.7611570999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.9924396999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.8949657999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.8071924000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.6924019E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$B$64</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16 Particles</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Data!$C$60:$Q$60</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1000-S</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3000-S</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5000-S</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$C$64:$Q$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>2.7324848999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.7938431999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4534296E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2875545E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4217116E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.5759957000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.6090890999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.0181645E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.6117496E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5236941999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.130883051</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.133930677</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.0524352000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.5648702999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.0170117E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:bandFmts>
+          <c:bandFmt>
+            <c:idx val="0"/>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="1"/>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="92D050"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="2"/>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="3"/>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="4"/>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="5"/>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="6"/>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:bandFmt>
+        </c:bandFmts>
+        <c:axId val="373134368"/>
+        <c:axId val="373132800"/>
+        <c:axId val="373104928"/>
+      </c:surface3DChart>
+      <c:catAx>
+        <c:axId val="373134368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Iterations</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" b="1" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> and Cores</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1600" b="1">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.37700101227085558"/>
+              <c:y val="0.82369698060665197"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="373132800"/>
+        <c:crossesAt val="1.0000000000000002E-3"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="373132800"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" b="1" i="0" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Execution Time (Seconds)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1600">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="373134368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="373104928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" b="1" i="0" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Number of Particles</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="373132800"/>
+        <c:crossesAt val="1.0000000000000002E-3"/>
+      </c:serAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
@@ -3308,6 +7314,39 @@
 </file>
 
 <file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="96" workbookViewId="0"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="93" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="93" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
@@ -3349,6 +7388,33 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8661797" cy="6290469"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
     <xdr:ext cx="8664677" cy="6288548"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3370,6 +7436,669 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8664677" cy="6288548"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8664677" cy="6288548"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.37943</cdr:x>
+      <cdr:y>0.41042</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.3948</cdr:x>
+      <cdr:y>0.4316</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="Oval 3"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3287662" y="2580966"/>
+          <a:ext cx="133145" cy="133145"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575"/>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.42667</cdr:x>
+      <cdr:y>0.4071</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.44203</cdr:x>
+      <cdr:y>0.42827</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="5" name="Oval 4"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3696929" y="2560074"/>
+          <a:ext cx="133145" cy="133145"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575"/>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.47395</cdr:x>
+      <cdr:y>0.44782</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.48931</cdr:x>
+      <cdr:y>0.46899</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="6" name="Oval 5"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="4106606" y="2816123"/>
+          <a:ext cx="133145" cy="133145"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575"/>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.52123</cdr:x>
+      <cdr:y>0.46248</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.5366</cdr:x>
+      <cdr:y>0.48365</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="7" name="Oval 6"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="4516284" y="2908300"/>
+          <a:ext cx="133145" cy="133145"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575"/>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.56733</cdr:x>
+      <cdr:y>0.4641</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.5827</cdr:x>
+      <cdr:y>0.48528</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="8" name="Oval 7"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="4915719" y="2918542"/>
+          <a:ext cx="133145" cy="133145"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575"/>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3635,15 +8364,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:Q40"/>
+  <dimension ref="B1:Q74"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="H68" sqref="H68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="25"/>
+    <col min="2" max="2" width="18.85546875" style="25" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="15.75" thickBot="1"/>
@@ -4554,13 +9285,13 @@
       <c r="C30" s="16">
         <v>3.7194699999999999E-3</v>
       </c>
-      <c r="D30" s="17">
+      <c r="D30" s="94">
         <v>3.199276E-3</v>
       </c>
       <c r="E30" s="17">
         <v>3.813407E-3</v>
       </c>
-      <c r="F30" s="17">
+      <c r="F30" s="94">
         <v>3.3124159999999999E-3</v>
       </c>
       <c r="G30" s="17">
@@ -4578,7 +9309,7 @@
       <c r="K30" s="17">
         <v>5.0080402000000003E-2</v>
       </c>
-      <c r="L30" s="17">
+      <c r="L30" s="94">
         <v>0.53836968600000001</v>
       </c>
       <c r="M30" s="17">
@@ -4587,7 +9318,7 @@
       <c r="N30" s="17">
         <v>0.36216028700000003</v>
       </c>
-      <c r="O30" s="17">
+      <c r="O30" s="94">
         <v>0.288989844</v>
       </c>
       <c r="P30" s="17">
@@ -4675,7 +9406,7 @@
       <c r="J32" s="2">
         <v>2.8096797E-2</v>
       </c>
-      <c r="K32" s="2">
+      <c r="K32" s="96">
         <v>4.3108979999999998E-2</v>
       </c>
       <c r="L32" s="2">
@@ -4690,10 +9421,10 @@
       <c r="O32" s="2">
         <v>0.29789396299999998</v>
       </c>
-      <c r="P32" s="2">
+      <c r="P32" s="96">
         <v>0.68118776800000003</v>
       </c>
-      <c r="Q32" s="12">
+      <c r="Q32" s="97">
         <v>5.1051886230000001</v>
       </c>
     </row>
@@ -4707,22 +9438,22 @@
       <c r="D33" s="14">
         <v>3.5078430000000001E-3</v>
       </c>
-      <c r="E33" s="14">
+      <c r="E33" s="95">
         <v>2.8469110000000001E-3</v>
       </c>
       <c r="F33" s="14">
         <v>3.9591060000000004E-3</v>
       </c>
-      <c r="G33" s="14">
+      <c r="G33" s="95">
         <v>8.4145023999999999E-2</v>
       </c>
       <c r="H33" s="14">
         <v>2.6389062000000001E-2</v>
       </c>
-      <c r="I33" s="14">
+      <c r="I33" s="95">
         <v>2.8739384999999999E-2</v>
       </c>
-      <c r="J33" s="14">
+      <c r="J33" s="95">
         <v>2.5006125000000001E-2</v>
       </c>
       <c r="K33" s="14">
@@ -4734,7 +9465,7 @@
       <c r="M33" s="14">
         <v>0.30871922099999999</v>
       </c>
-      <c r="N33" s="14">
+      <c r="N33" s="95">
         <v>0.33593964399999998</v>
       </c>
       <c r="O33" s="14">
@@ -4807,10 +9538,10 @@
       <c r="F36" s="9">
         <v>1003</v>
       </c>
-      <c r="G36" s="9">
+      <c r="G36" s="46">
         <v>1004</v>
       </c>
-      <c r="H36" s="9" t="s">
+      <c r="H36" s="50" t="s">
         <v>10</v>
       </c>
       <c r="I36" s="9">
@@ -4822,10 +9553,10 @@
       <c r="K36" s="9">
         <v>10003</v>
       </c>
-      <c r="L36" s="9">
+      <c r="L36" s="10">
         <v>10004</v>
       </c>
-      <c r="M36" s="9" t="s">
+      <c r="M36" s="50" t="s">
         <v>11</v>
       </c>
       <c r="N36" s="9">
@@ -4845,105 +9576,1742 @@
       <c r="B37" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C37" s="16">
-        <v>3.7194699999999999E-3</v>
-      </c>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17">
-        <v>2.6389062000000001E-2</v>
-      </c>
-      <c r="I37" s="17"/>
-      <c r="J37" s="17"/>
-      <c r="K37" s="17"/>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17">
-        <v>0.30871922099999999</v>
-      </c>
-      <c r="N37" s="17"/>
-      <c r="O37" s="17"/>
-      <c r="P37" s="17"/>
-      <c r="Q37" s="18"/>
+      <c r="C37" s="26">
+        <v>5.7119329999999998E-3</v>
+      </c>
+      <c r="D37" s="27">
+        <v>5.5745079999999997E-3</v>
+      </c>
+      <c r="E37" s="90">
+        <v>1.943551E-3</v>
+      </c>
+      <c r="F37" s="90">
+        <v>6.5749559999999999E-3</v>
+      </c>
+      <c r="G37" s="91">
+        <v>8.6033429999999994E-3</v>
+      </c>
+      <c r="H37" s="26">
+        <v>2.8545355000000001E-2</v>
+      </c>
+      <c r="I37" s="90">
+        <v>2.7733312E-2</v>
+      </c>
+      <c r="J37" s="27">
+        <v>1.4850357E-2</v>
+      </c>
+      <c r="K37" s="27">
+        <v>1.4665760999999999E-2</v>
+      </c>
+      <c r="L37" s="28">
+        <v>1.6782934999999999E-2</v>
+      </c>
+      <c r="M37" s="26">
+        <v>0.28550113599999999</v>
+      </c>
+      <c r="N37" s="90">
+        <v>0.27506465099999999</v>
+      </c>
+      <c r="O37" s="27">
+        <v>0.111986108</v>
+      </c>
+      <c r="P37" s="90">
+        <v>6.9783485000000006E-2</v>
+      </c>
+      <c r="Q37" s="93">
+        <v>5.3617246E-2</v>
+      </c>
     </row>
     <row r="38" spans="2:17">
       <c r="B38" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="19">
-        <v>3.7194699999999999E-3</v>
-      </c>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2">
-        <v>2.6389062000000001E-2</v>
-      </c>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2">
-        <v>0.30871922099999999</v>
-      </c>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="2"/>
-      <c r="Q38" s="12"/>
+      <c r="C38" s="29">
+        <v>5.7119329999999998E-3</v>
+      </c>
+      <c r="D38" s="89">
+        <v>4.804053E-3</v>
+      </c>
+      <c r="E38" s="30">
+        <v>2.1850749999999999E-3</v>
+      </c>
+      <c r="F38" s="30">
+        <v>6.7635810000000003E-3</v>
+      </c>
+      <c r="G38" s="47">
+        <v>9.4347960000000005E-3</v>
+      </c>
+      <c r="H38" s="29">
+        <v>2.8545355000000001E-2</v>
+      </c>
+      <c r="I38" s="30">
+        <v>2.8348960999999999E-2</v>
+      </c>
+      <c r="J38" s="89">
+        <v>1.4285365E-2</v>
+      </c>
+      <c r="K38" s="30">
+        <v>1.5516090999999999E-2</v>
+      </c>
+      <c r="L38" s="92">
+        <v>1.3369225E-2</v>
+      </c>
+      <c r="M38" s="29">
+        <v>0.28550113599999999</v>
+      </c>
+      <c r="N38" s="30">
+        <v>0.28935724600000001</v>
+      </c>
+      <c r="O38" s="30">
+        <v>0.109112769</v>
+      </c>
+      <c r="P38" s="30">
+        <v>7.2193225E-2</v>
+      </c>
+      <c r="Q38" s="31">
+        <v>5.7917709999999997E-2</v>
+      </c>
     </row>
     <row r="39" spans="2:17">
       <c r="B39" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C39" s="19">
-        <v>3.7194699999999999E-3</v>
-      </c>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2">
-        <v>2.6389062000000001E-2</v>
-      </c>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2">
-        <v>0.30871922099999999</v>
-      </c>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
-      <c r="P39" s="2"/>
-      <c r="Q39" s="12"/>
+      <c r="C39" s="29">
+        <v>5.7119329999999998E-3</v>
+      </c>
+      <c r="D39" s="30">
+        <v>5.5599220000000001E-3</v>
+      </c>
+      <c r="E39" s="30">
+        <v>2.1626570000000001E-3</v>
+      </c>
+      <c r="F39" s="30">
+        <v>9.7364259999999994E-3</v>
+      </c>
+      <c r="G39" s="47">
+        <v>9.2426729999999999E-3</v>
+      </c>
+      <c r="H39" s="29">
+        <v>2.8545355000000001E-2</v>
+      </c>
+      <c r="I39" s="30">
+        <v>3.2256666000000003E-2</v>
+      </c>
+      <c r="J39" s="30">
+        <v>1.4949596000000001E-2</v>
+      </c>
+      <c r="K39" s="89">
+        <v>1.3791839E-2</v>
+      </c>
+      <c r="L39" s="31">
+        <v>1.8451641000000001E-2</v>
+      </c>
+      <c r="M39" s="29">
+        <v>0.28550113599999999</v>
+      </c>
+      <c r="N39" s="30">
+        <v>0.29374805100000001</v>
+      </c>
+      <c r="O39" s="89">
+        <v>0.105893681</v>
+      </c>
+      <c r="P39" s="30">
+        <v>6.9805269000000003E-2</v>
+      </c>
+      <c r="Q39" s="31">
+        <v>5.5581944000000001E-2</v>
+      </c>
     </row>
     <row r="40" spans="2:17" ht="15.75" thickBot="1">
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C40" s="20">
-        <v>3.7194699999999999E-3</v>
-      </c>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14">
-        <v>2.6389062000000001E-2</v>
-      </c>
-      <c r="I40" s="14"/>
-      <c r="J40" s="14"/>
-      <c r="K40" s="14"/>
-      <c r="L40" s="14"/>
-      <c r="M40" s="14">
-        <v>0.30871922099999999</v>
-      </c>
-      <c r="N40" s="14"/>
-      <c r="O40" s="14"/>
-      <c r="P40" s="14"/>
-      <c r="Q40" s="15"/>
+      <c r="C40" s="33">
+        <v>5.7119329999999998E-3</v>
+      </c>
+      <c r="D40" s="34">
+        <v>5.1637699999999998E-3</v>
+      </c>
+      <c r="E40" s="34">
+        <v>2.315882E-3</v>
+      </c>
+      <c r="F40" s="34">
+        <v>1.0646218000000001E-2</v>
+      </c>
+      <c r="G40" s="48">
+        <v>9.2631290000000002E-3</v>
+      </c>
+      <c r="H40" s="33">
+        <v>2.8545355000000001E-2</v>
+      </c>
+      <c r="I40" s="34">
+        <v>3.1243301000000001E-2</v>
+      </c>
+      <c r="J40" s="34">
+        <v>1.5188984000000001E-2</v>
+      </c>
+      <c r="K40" s="34">
+        <v>1.7100530999999999E-2</v>
+      </c>
+      <c r="L40" s="35">
+        <v>1.6811215000000001E-2</v>
+      </c>
+      <c r="M40" s="33">
+        <v>0.28550113599999999</v>
+      </c>
+      <c r="N40" s="34">
+        <v>0.28771370200000002</v>
+      </c>
+      <c r="O40" s="34">
+        <v>0.107502744</v>
+      </c>
+      <c r="P40" s="34">
+        <v>7.7272766000000007E-2</v>
+      </c>
+      <c r="Q40" s="35">
+        <v>5.6489209999999998E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:17" ht="15.75" thickBot="1">
+      <c r="B41" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="51"/>
+      <c r="D41" s="9">
+        <v>1001</v>
+      </c>
+      <c r="E41" s="9">
+        <v>1002</v>
+      </c>
+      <c r="F41" s="9">
+        <v>1003</v>
+      </c>
+      <c r="G41" s="46">
+        <v>1004</v>
+      </c>
+      <c r="H41" s="50"/>
+      <c r="I41" s="9">
+        <v>10001</v>
+      </c>
+      <c r="J41" s="9">
+        <v>10002</v>
+      </c>
+      <c r="K41" s="9">
+        <v>10003</v>
+      </c>
+      <c r="L41" s="10">
+        <v>10004</v>
+      </c>
+      <c r="M41" s="50"/>
+      <c r="N41" s="9">
+        <v>100001</v>
+      </c>
+      <c r="O41" s="9">
+        <v>100002</v>
+      </c>
+      <c r="P41" s="9">
+        <v>100003</v>
+      </c>
+      <c r="Q41" s="10">
+        <v>100004</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17">
+      <c r="B42" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="37"/>
+      <c r="D42" s="52">
+        <f>$C37/D37</f>
+        <v>1.0246523998171677</v>
+      </c>
+      <c r="E42" s="64">
+        <f t="shared" ref="E42:G42" si="0">$C37/E37</f>
+        <v>2.9389159327437251</v>
+      </c>
+      <c r="F42" s="64">
+        <f t="shared" si="0"/>
+        <v>0.86874087066133976</v>
+      </c>
+      <c r="G42" s="63">
+        <f t="shared" si="0"/>
+        <v>0.66392017614548204</v>
+      </c>
+      <c r="H42" s="37"/>
+      <c r="I42" s="64">
+        <f>$H37/I37</f>
+        <v>1.0292804191580147</v>
+      </c>
+      <c r="J42" s="38">
+        <f t="shared" ref="J42:L42" si="1">$H37/J37</f>
+        <v>1.9221999174834654</v>
+      </c>
+      <c r="K42" s="38">
+        <f t="shared" si="1"/>
+        <v>1.9463943943993089</v>
+      </c>
+      <c r="L42" s="57">
+        <f t="shared" si="1"/>
+        <v>1.7008559587461909</v>
+      </c>
+      <c r="M42" s="37"/>
+      <c r="N42" s="64">
+        <f>$M37/N37</f>
+        <v>1.0379419346035852</v>
+      </c>
+      <c r="O42" s="38">
+        <f t="shared" ref="O42:Q42" si="2">$M37/O37</f>
+        <v>2.5494335065202907</v>
+      </c>
+      <c r="P42" s="64">
+        <f t="shared" si="2"/>
+        <v>4.0912421613795864</v>
+      </c>
+      <c r="Q42" s="69">
+        <f t="shared" si="2"/>
+        <v>5.3248004569276084</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17">
+      <c r="B43" s="61" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="40"/>
+      <c r="D43" s="66">
+        <f t="shared" ref="D43:G43" si="3">$C38/D38</f>
+        <v>1.1889820949102767</v>
+      </c>
+      <c r="E43" s="53">
+        <f t="shared" si="3"/>
+        <v>2.614067251696166</v>
+      </c>
+      <c r="F43" s="55">
+        <f t="shared" si="3"/>
+        <v>0.844513135866932</v>
+      </c>
+      <c r="G43" s="58">
+        <f t="shared" si="3"/>
+        <v>0.60541139416262946</v>
+      </c>
+      <c r="H43" s="40"/>
+      <c r="I43" s="53">
+        <f t="shared" ref="I43:L43" si="4">$H38/I38</f>
+        <v>1.006927731848797</v>
+      </c>
+      <c r="J43" s="66">
+        <f t="shared" si="4"/>
+        <v>1.9982237065696258</v>
+      </c>
+      <c r="K43" s="36">
+        <f t="shared" si="4"/>
+        <v>1.8397259335485983</v>
+      </c>
+      <c r="L43" s="67">
+        <f t="shared" si="4"/>
+        <v>2.1351540571723491</v>
+      </c>
+      <c r="M43" s="40"/>
+      <c r="N43" s="36">
+        <f t="shared" ref="N43:Q43" si="5">$M38/N38</f>
+        <v>0.98667353227435672</v>
+      </c>
+      <c r="O43" s="36">
+        <f t="shared" si="5"/>
+        <v>2.6165694319424704</v>
+      </c>
+      <c r="P43" s="36">
+        <f t="shared" si="5"/>
+        <v>3.9546804565109812</v>
+      </c>
+      <c r="Q43" s="41">
+        <f t="shared" si="5"/>
+        <v>4.9294272166492767</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17">
+      <c r="B44" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="40"/>
+      <c r="D44" s="53">
+        <f t="shared" ref="D44:G44" si="6">$C39/D39</f>
+        <v>1.0273404914673263</v>
+      </c>
+      <c r="E44" s="53">
+        <f t="shared" si="6"/>
+        <v>2.6411645489784092</v>
+      </c>
+      <c r="F44" s="55">
+        <f t="shared" si="6"/>
+        <v>0.58665602758137325</v>
+      </c>
+      <c r="G44" s="58">
+        <f t="shared" si="6"/>
+        <v>0.61799578974610481</v>
+      </c>
+      <c r="H44" s="40"/>
+      <c r="I44" s="36">
+        <f t="shared" ref="I44:L44" si="7">$H39/I39</f>
+        <v>0.88494437087825506</v>
+      </c>
+      <c r="J44" s="36">
+        <f t="shared" si="7"/>
+        <v>1.9094398938941226</v>
+      </c>
+      <c r="K44" s="66">
+        <f t="shared" si="7"/>
+        <v>2.0697279746377553</v>
+      </c>
+      <c r="L44" s="58">
+        <f t="shared" si="7"/>
+        <v>1.5470361145656366</v>
+      </c>
+      <c r="M44" s="40"/>
+      <c r="N44" s="36">
+        <f t="shared" ref="N44:Q44" si="8">$M39/N39</f>
+        <v>0.97192520947143235</v>
+      </c>
+      <c r="O44" s="66">
+        <f t="shared" si="8"/>
+        <v>2.6961111683330752</v>
+      </c>
+      <c r="P44" s="36">
+        <f t="shared" si="8"/>
+        <v>4.0899654150748992</v>
+      </c>
+      <c r="Q44" s="41">
+        <f t="shared" si="8"/>
+        <v>5.1365806133013265</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" ht="15.75" thickBot="1">
+      <c r="B45" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="42"/>
+      <c r="D45" s="54">
+        <f t="shared" ref="D45:G45" si="9">$C40/D40</f>
+        <v>1.1061555801284719</v>
+      </c>
+      <c r="E45" s="54">
+        <f t="shared" si="9"/>
+        <v>2.4664179781180562</v>
+      </c>
+      <c r="F45" s="56">
+        <f t="shared" si="9"/>
+        <v>0.53652226546553894</v>
+      </c>
+      <c r="G45" s="59">
+        <f t="shared" si="9"/>
+        <v>0.61663105415027686</v>
+      </c>
+      <c r="H45" s="42"/>
+      <c r="I45" s="43">
+        <f t="shared" ref="I45:L45" si="10">$H40/I40</f>
+        <v>0.91364721672655524</v>
+      </c>
+      <c r="J45" s="43">
+        <f t="shared" si="10"/>
+        <v>1.8793459128010142</v>
+      </c>
+      <c r="K45" s="43">
+        <f t="shared" si="10"/>
+        <v>1.6692671707094946</v>
+      </c>
+      <c r="L45" s="49">
+        <f t="shared" si="10"/>
+        <v>1.6979947612352826</v>
+      </c>
+      <c r="M45" s="42"/>
+      <c r="N45" s="43">
+        <f t="shared" ref="N45:Q45" si="11">$M40/N40</f>
+        <v>0.9923098344478567</v>
+      </c>
+      <c r="O45" s="43">
+        <f t="shared" si="11"/>
+        <v>2.6557567311956243</v>
+      </c>
+      <c r="P45" s="43">
+        <f t="shared" si="11"/>
+        <v>3.6947187318233174</v>
+      </c>
+      <c r="Q45" s="44">
+        <f t="shared" si="11"/>
+        <v>5.0540826469338125</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" ht="15.75" thickBot="1">
+      <c r="B46" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46" s="51"/>
+      <c r="D46" s="9">
+        <v>1001</v>
+      </c>
+      <c r="E46" s="9">
+        <v>1002</v>
+      </c>
+      <c r="F46" s="9">
+        <v>1003</v>
+      </c>
+      <c r="G46" s="46">
+        <v>1004</v>
+      </c>
+      <c r="H46" s="50"/>
+      <c r="I46" s="9">
+        <v>10001</v>
+      </c>
+      <c r="J46" s="9">
+        <v>10002</v>
+      </c>
+      <c r="K46" s="9">
+        <v>10003</v>
+      </c>
+      <c r="L46" s="10">
+        <v>10004</v>
+      </c>
+      <c r="M46" s="50"/>
+      <c r="N46" s="9">
+        <v>100001</v>
+      </c>
+      <c r="O46" s="9">
+        <v>100002</v>
+      </c>
+      <c r="P46" s="9">
+        <v>100003</v>
+      </c>
+      <c r="Q46" s="10">
+        <v>100004</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17">
+      <c r="B47" s="65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" s="37"/>
+      <c r="D47" s="52">
+        <f>D42/1</f>
+        <v>1.0246523998171677</v>
+      </c>
+      <c r="E47" s="64">
+        <f>E42/2</f>
+        <v>1.4694579663718625</v>
+      </c>
+      <c r="F47" s="64">
+        <f>F42/3</f>
+        <v>0.28958029022044657</v>
+      </c>
+      <c r="G47" s="69">
+        <f>G42/4</f>
+        <v>0.16598004403637051</v>
+      </c>
+      <c r="H47" s="37"/>
+      <c r="I47" s="64">
+        <f>I42/1</f>
+        <v>1.0292804191580147</v>
+      </c>
+      <c r="J47" s="38">
+        <f>J42/2</f>
+        <v>0.96109995874173271</v>
+      </c>
+      <c r="K47" s="38">
+        <f>K42/3</f>
+        <v>0.64879813146643628</v>
+      </c>
+      <c r="L47" s="39">
+        <f>L42/4</f>
+        <v>0.42521398968654772</v>
+      </c>
+      <c r="M47" s="37"/>
+      <c r="N47" s="64">
+        <f>N42/1</f>
+        <v>1.0379419346035852</v>
+      </c>
+      <c r="O47" s="52">
+        <f>O42/2</f>
+        <v>1.2747167532601453</v>
+      </c>
+      <c r="P47" s="64">
+        <f>P42/3</f>
+        <v>1.3637473871265289</v>
+      </c>
+      <c r="Q47" s="69">
+        <f>Q42/4</f>
+        <v>1.3312001142319021</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17">
+      <c r="B48" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="40"/>
+      <c r="D48" s="66">
+        <f t="shared" ref="D48:D50" si="12">D43/1</f>
+        <v>1.1889820949102767</v>
+      </c>
+      <c r="E48" s="53">
+        <f t="shared" ref="E48:E50" si="13">E43/2</f>
+        <v>1.307033625848083</v>
+      </c>
+      <c r="F48" s="36">
+        <f t="shared" ref="F48:F50" si="14">F43/3</f>
+        <v>0.28150437862231065</v>
+      </c>
+      <c r="G48" s="41">
+        <f t="shared" ref="G48:G50" si="15">G43/4</f>
+        <v>0.15135284854065736</v>
+      </c>
+      <c r="H48" s="40"/>
+      <c r="I48" s="53">
+        <f t="shared" ref="I48:I50" si="16">I43/1</f>
+        <v>1.006927731848797</v>
+      </c>
+      <c r="J48" s="66">
+        <f t="shared" ref="J48:J50" si="17">J43/2</f>
+        <v>0.99911185328481289</v>
+      </c>
+      <c r="K48" s="36">
+        <f t="shared" ref="K48:K50" si="18">K43/3</f>
+        <v>0.61324197784953272</v>
+      </c>
+      <c r="L48" s="68">
+        <f t="shared" ref="L48:L50" si="19">L43/4</f>
+        <v>0.53378851429308727</v>
+      </c>
+      <c r="M48" s="40"/>
+      <c r="N48" s="53">
+        <f t="shared" ref="N48:N50" si="20">N43/1</f>
+        <v>0.98667353227435672</v>
+      </c>
+      <c r="O48" s="53">
+        <f t="shared" ref="O48:O50" si="21">O43/2</f>
+        <v>1.3082847159712352</v>
+      </c>
+      <c r="P48" s="36">
+        <f t="shared" ref="P48:P50" si="22">P43/3</f>
+        <v>1.3182268188369937</v>
+      </c>
+      <c r="Q48" s="41">
+        <f t="shared" ref="Q48:Q50" si="23">Q43/4</f>
+        <v>1.2323568041623192</v>
+      </c>
+    </row>
+    <row r="49" spans="2:17">
+      <c r="B49" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" s="40"/>
+      <c r="D49" s="53">
+        <f t="shared" si="12"/>
+        <v>1.0273404914673263</v>
+      </c>
+      <c r="E49" s="53">
+        <f t="shared" si="13"/>
+        <v>1.3205822744892046</v>
+      </c>
+      <c r="F49" s="36">
+        <f t="shared" si="14"/>
+        <v>0.19555200919379109</v>
+      </c>
+      <c r="G49" s="41">
+        <f t="shared" si="15"/>
+        <v>0.1544989474365262</v>
+      </c>
+      <c r="H49" s="40"/>
+      <c r="I49" s="36">
+        <f t="shared" si="16"/>
+        <v>0.88494437087825506</v>
+      </c>
+      <c r="J49" s="36">
+        <f t="shared" si="17"/>
+        <v>0.9547199469470613</v>
+      </c>
+      <c r="K49" s="66">
+        <f t="shared" si="18"/>
+        <v>0.68990932487925172</v>
+      </c>
+      <c r="L49" s="41">
+        <f t="shared" si="19"/>
+        <v>0.38675902864140915</v>
+      </c>
+      <c r="M49" s="40"/>
+      <c r="N49" s="53">
+        <f t="shared" si="20"/>
+        <v>0.97192520947143235</v>
+      </c>
+      <c r="O49" s="66">
+        <f t="shared" si="21"/>
+        <v>1.3480555841665376</v>
+      </c>
+      <c r="P49" s="36">
+        <f t="shared" si="22"/>
+        <v>1.3633218050249665</v>
+      </c>
+      <c r="Q49" s="41">
+        <f t="shared" si="23"/>
+        <v>1.2841451533253316</v>
+      </c>
+    </row>
+    <row r="50" spans="2:17" ht="15.75" thickBot="1">
+      <c r="B50" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="42"/>
+      <c r="D50" s="54">
+        <f t="shared" si="12"/>
+        <v>1.1061555801284719</v>
+      </c>
+      <c r="E50" s="54">
+        <f t="shared" si="13"/>
+        <v>1.2332089890590281</v>
+      </c>
+      <c r="F50" s="43">
+        <f t="shared" si="14"/>
+        <v>0.17884075515517964</v>
+      </c>
+      <c r="G50" s="44">
+        <f t="shared" si="15"/>
+        <v>0.15415776353756921</v>
+      </c>
+      <c r="H50" s="42"/>
+      <c r="I50" s="43">
+        <f t="shared" si="16"/>
+        <v>0.91364721672655524</v>
+      </c>
+      <c r="J50" s="43">
+        <f t="shared" si="17"/>
+        <v>0.93967295640050708</v>
+      </c>
+      <c r="K50" s="43">
+        <f t="shared" si="18"/>
+        <v>0.5564223902364982</v>
+      </c>
+      <c r="L50" s="44">
+        <f t="shared" si="19"/>
+        <v>0.42449869030882065</v>
+      </c>
+      <c r="M50" s="42"/>
+      <c r="N50" s="54">
+        <f t="shared" si="20"/>
+        <v>0.9923098344478567</v>
+      </c>
+      <c r="O50" s="54">
+        <f t="shared" si="21"/>
+        <v>1.3278783655978121</v>
+      </c>
+      <c r="P50" s="43">
+        <f t="shared" si="22"/>
+        <v>1.2315729106077724</v>
+      </c>
+      <c r="Q50" s="44">
+        <f t="shared" si="23"/>
+        <v>1.2635206617334531</v>
+      </c>
+    </row>
+    <row r="51" spans="2:17" ht="15.75" thickBot="1"/>
+    <row r="52" spans="2:17" ht="15.75" thickBot="1">
+      <c r="B52" s="74" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52" s="75"/>
+      <c r="D52" s="75"/>
+      <c r="E52" s="76"/>
+      <c r="F52" s="77">
+        <v>5</v>
+      </c>
+      <c r="G52" s="70"/>
+      <c r="H52" s="71"/>
+      <c r="I52" s="71"/>
+      <c r="J52" s="77">
+        <v>6</v>
+      </c>
+      <c r="K52" s="71"/>
+      <c r="L52" s="71"/>
+      <c r="M52" s="71"/>
+      <c r="N52" s="77">
+        <v>7</v>
+      </c>
+      <c r="P52" s="71"/>
+      <c r="Q52" s="71"/>
+    </row>
+    <row r="53" spans="2:17" ht="15.75" thickBot="1">
+      <c r="B53" s="77" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53" s="78" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53" s="79">
+        <v>1</v>
+      </c>
+      <c r="E53" s="79">
+        <v>2</v>
+      </c>
+      <c r="F53" s="79">
+        <v>3</v>
+      </c>
+      <c r="G53" s="76">
+        <v>4</v>
+      </c>
+      <c r="H53" s="78" t="s">
+        <v>16</v>
+      </c>
+      <c r="I53" s="79">
+        <v>1</v>
+      </c>
+      <c r="J53" s="79">
+        <v>2</v>
+      </c>
+      <c r="K53" s="79">
+        <v>3</v>
+      </c>
+      <c r="L53" s="76">
+        <v>4</v>
+      </c>
+      <c r="M53" s="78" t="s">
+        <v>17</v>
+      </c>
+      <c r="N53" s="79">
+        <v>1</v>
+      </c>
+      <c r="O53" s="79">
+        <v>2</v>
+      </c>
+      <c r="P53" s="79">
+        <v>3</v>
+      </c>
+      <c r="Q53" s="76">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="2:17">
+      <c r="B54" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54" s="83">
+        <v>8.9235940999999999E-2</v>
+      </c>
+      <c r="D54" s="73">
+        <v>8.9343727999999997E-2</v>
+      </c>
+      <c r="E54" s="99">
+        <v>3.6136667999999997E-2</v>
+      </c>
+      <c r="F54" s="99">
+        <v>2.4093249000000001E-2</v>
+      </c>
+      <c r="G54" s="100">
+        <v>2.1310920000000001E-2</v>
+      </c>
+      <c r="H54" s="83">
+        <v>0.104311183</v>
+      </c>
+      <c r="I54" s="99">
+        <v>0.103397317</v>
+      </c>
+      <c r="J54" s="99">
+        <v>4.1501956999999999E-2</v>
+      </c>
+      <c r="K54" s="99">
+        <v>3.2706012999999999E-2</v>
+      </c>
+      <c r="L54" s="100">
+        <v>2.464241E-2</v>
+      </c>
+      <c r="M54" s="83">
+        <v>0.12868179799999999</v>
+      </c>
+      <c r="N54" s="99">
+        <v>0.117852846</v>
+      </c>
+      <c r="O54" s="99">
+        <v>4.7684545000000002E-2</v>
+      </c>
+      <c r="P54" s="99">
+        <v>3.5317245999999997E-2</v>
+      </c>
+      <c r="Q54" s="100">
+        <v>2.8873092999999999E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="2:17">
+      <c r="B55" s="81" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="84">
+        <v>8.9235940999999999E-2</v>
+      </c>
+      <c r="D55" s="72">
+        <v>9.2617347000000003E-2</v>
+      </c>
+      <c r="E55" s="72">
+        <v>4.1336636000000003E-2</v>
+      </c>
+      <c r="F55" s="72">
+        <v>3.2847179999999997E-2</v>
+      </c>
+      <c r="G55" s="85">
+        <v>2.6485486999999999E-2</v>
+      </c>
+      <c r="H55" s="84">
+        <v>0.104311183</v>
+      </c>
+      <c r="I55" s="72">
+        <v>0.109022544</v>
+      </c>
+      <c r="J55" s="72">
+        <v>4.8608183999999999E-2</v>
+      </c>
+      <c r="K55" s="72">
+        <v>3.7560061999999998E-2</v>
+      </c>
+      <c r="L55" s="85">
+        <v>3.023472E-2</v>
+      </c>
+      <c r="M55" s="84">
+        <v>0.12868179799999999</v>
+      </c>
+      <c r="N55" s="72">
+        <v>0.12664476399999999</v>
+      </c>
+      <c r="O55" s="72">
+        <v>5.3140068999999998E-2</v>
+      </c>
+      <c r="P55" s="72">
+        <v>3.8300603000000003E-2</v>
+      </c>
+      <c r="Q55" s="85">
+        <v>3.4936212000000001E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="2:17">
+      <c r="B56" s="81" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" s="84">
+        <v>8.9235940999999999E-2</v>
+      </c>
+      <c r="D56" s="98">
+        <v>8.8331057000000004E-2</v>
+      </c>
+      <c r="E56" s="72">
+        <v>4.1681304000000002E-2</v>
+      </c>
+      <c r="F56" s="72">
+        <v>3.0912853000000001E-2</v>
+      </c>
+      <c r="G56" s="85">
+        <v>2.7064894999999999E-2</v>
+      </c>
+      <c r="H56" s="84">
+        <v>0.104311183</v>
+      </c>
+      <c r="I56" s="72">
+        <v>0.10909126700000001</v>
+      </c>
+      <c r="J56" s="72">
+        <v>4.7056437E-2</v>
+      </c>
+      <c r="K56" s="72">
+        <v>3.6845988000000003E-2</v>
+      </c>
+      <c r="L56" s="85">
+        <v>3.0275825999999999E-2</v>
+      </c>
+      <c r="M56" s="84">
+        <v>0.12868179799999999</v>
+      </c>
+      <c r="N56" s="72">
+        <v>0.12855756199999999</v>
+      </c>
+      <c r="O56" s="72">
+        <v>5.1516579999999999E-2</v>
+      </c>
+      <c r="P56" s="72">
+        <v>3.9584501000000001E-2</v>
+      </c>
+      <c r="Q56" s="85">
+        <v>3.4226702999999997E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="2:17" ht="15.75" thickBot="1">
+      <c r="B57" s="82" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" s="86">
+        <v>8.9235940999999999E-2</v>
+      </c>
+      <c r="D57" s="87">
+        <v>9.1217444999999994E-2</v>
+      </c>
+      <c r="E57" s="87">
+        <v>4.1302542999999997E-2</v>
+      </c>
+      <c r="F57" s="87">
+        <v>3.2349972999999997E-2</v>
+      </c>
+      <c r="G57" s="88">
+        <v>2.8132102999999999E-2</v>
+      </c>
+      <c r="H57" s="86">
+        <v>0.104311183</v>
+      </c>
+      <c r="I57" s="87">
+        <v>0.118100538</v>
+      </c>
+      <c r="J57" s="87">
+        <v>5.2870605000000001E-2</v>
+      </c>
+      <c r="K57" s="87">
+        <v>3.4288638000000003E-2</v>
+      </c>
+      <c r="L57" s="88">
+        <v>3.1575106999999998E-2</v>
+      </c>
+      <c r="M57" s="86">
+        <v>0.12868179799999999</v>
+      </c>
+      <c r="N57" s="87">
+        <v>0.12502797099999999</v>
+      </c>
+      <c r="O57" s="87">
+        <v>5.4549047000000003E-2</v>
+      </c>
+      <c r="P57" s="87">
+        <v>3.9652854000000001E-2</v>
+      </c>
+      <c r="Q57" s="88">
+        <v>3.2556138999999998E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="2:17" ht="15.75" thickBot="1"/>
+    <row r="59" spans="2:17" ht="15.75" thickBot="1">
+      <c r="B59" s="116" t="s">
+        <v>18</v>
+      </c>
+      <c r="C59" s="117"/>
+      <c r="D59" s="117"/>
+      <c r="E59" s="112"/>
+      <c r="F59" s="115">
+        <v>1000</v>
+      </c>
+      <c r="G59" s="101"/>
+      <c r="H59" s="102"/>
+      <c r="I59" s="102"/>
+      <c r="J59" s="115">
+        <v>3000</v>
+      </c>
+      <c r="K59" s="102"/>
+      <c r="L59" s="102"/>
+      <c r="M59" s="102"/>
+      <c r="N59" s="115">
+        <v>5000</v>
+      </c>
+      <c r="O59" s="101"/>
+      <c r="P59" s="102"/>
+      <c r="Q59" s="102"/>
+    </row>
+    <row r="60" spans="2:17" ht="15.75" thickBot="1">
+      <c r="B60" s="115" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60" s="110" t="s">
+        <v>23</v>
+      </c>
+      <c r="D60" s="111">
+        <v>1</v>
+      </c>
+      <c r="E60" s="111">
+        <v>2</v>
+      </c>
+      <c r="F60" s="111">
+        <v>3</v>
+      </c>
+      <c r="G60" s="112">
+        <v>4</v>
+      </c>
+      <c r="H60" s="110" t="s">
+        <v>24</v>
+      </c>
+      <c r="I60" s="111">
+        <v>1</v>
+      </c>
+      <c r="J60" s="111">
+        <v>2</v>
+      </c>
+      <c r="K60" s="111">
+        <v>3</v>
+      </c>
+      <c r="L60" s="112">
+        <v>4</v>
+      </c>
+      <c r="M60" s="110" t="s">
+        <v>25</v>
+      </c>
+      <c r="N60" s="111">
+        <v>1</v>
+      </c>
+      <c r="O60" s="111">
+        <v>2</v>
+      </c>
+      <c r="P60" s="111">
+        <v>3</v>
+      </c>
+      <c r="Q60" s="112">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="2:17">
+      <c r="B61" s="122" t="s">
+        <v>19</v>
+      </c>
+      <c r="C61" s="123">
+        <v>1.0633294E-2</v>
+      </c>
+      <c r="D61" s="105">
+        <v>1.121457E-2</v>
+      </c>
+      <c r="E61" s="105">
+        <v>5.5389519999999998E-3</v>
+      </c>
+      <c r="F61" s="105">
+        <v>1.0800094999999999E-2</v>
+      </c>
+      <c r="G61" s="124">
+        <v>1.2778682E-2</v>
+      </c>
+      <c r="H61" s="123">
+        <v>2.1633281000000001E-2</v>
+      </c>
+      <c r="I61" s="105">
+        <v>2.7546277000000001E-2</v>
+      </c>
+      <c r="J61" s="105">
+        <v>1.14147E-2</v>
+      </c>
+      <c r="K61" s="105">
+        <v>1.2733582E-2</v>
+      </c>
+      <c r="L61" s="124">
+        <v>1.4534755E-2</v>
+      </c>
+      <c r="M61" s="123">
+        <v>3.5509802E-2</v>
+      </c>
+      <c r="N61" s="105">
+        <v>3.5664371E-2</v>
+      </c>
+      <c r="O61" s="105">
+        <v>1.6214508999999998E-2</v>
+      </c>
+      <c r="P61" s="105">
+        <v>1.5739017000000001E-2</v>
+      </c>
+      <c r="Q61" s="124">
+        <v>1.5846516000000001E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="2:17">
+      <c r="B62" s="113" t="s">
+        <v>20</v>
+      </c>
+      <c r="C62" s="118">
+        <v>1.5586009E-2</v>
+      </c>
+      <c r="D62" s="103">
+        <v>1.7026465000000001E-2</v>
+      </c>
+      <c r="E62" s="103">
+        <v>8.8186789999999994E-3</v>
+      </c>
+      <c r="F62" s="103">
+        <v>1.2542531000000001E-2</v>
+      </c>
+      <c r="G62" s="106">
+        <v>1.3947535E-2</v>
+      </c>
+      <c r="H62" s="118">
+        <v>3.7001437999999998E-2</v>
+      </c>
+      <c r="I62" s="103">
+        <v>3.7731054999999999E-2</v>
+      </c>
+      <c r="J62" s="103">
+        <v>1.8718727000000001E-2</v>
+      </c>
+      <c r="K62" s="103">
+        <v>1.7648493000000001E-2</v>
+      </c>
+      <c r="L62" s="106">
+        <v>1.5194254000000001E-2</v>
+      </c>
+      <c r="M62" s="118">
+        <v>6.2043813000000003E-2</v>
+      </c>
+      <c r="N62" s="103">
+        <v>6.4761973E-2</v>
+      </c>
+      <c r="O62" s="103">
+        <v>2.5874747999999999E-2</v>
+      </c>
+      <c r="P62" s="103">
+        <v>2.0040142E-2</v>
+      </c>
+      <c r="Q62" s="106">
+        <v>1.9326399000000001E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="2:17">
+      <c r="B63" s="113" t="s">
+        <v>21</v>
+      </c>
+      <c r="C63" s="118">
+        <v>2.1232475000000001E-2</v>
+      </c>
+      <c r="D63" s="103">
+        <v>2.1430072000000001E-2</v>
+      </c>
+      <c r="E63" s="103">
+        <v>1.231202E-2</v>
+      </c>
+      <c r="F63" s="103">
+        <v>1.1712307999999999E-2</v>
+      </c>
+      <c r="G63" s="106">
+        <v>1.5209355000000001E-2</v>
+      </c>
+      <c r="H63" s="118">
+        <v>5.4661211000000001E-2</v>
+      </c>
+      <c r="I63" s="103">
+        <v>5.636422E-2</v>
+      </c>
+      <c r="J63" s="103">
+        <v>2.4605333E-2</v>
+      </c>
+      <c r="K63" s="103">
+        <v>1.9075306E-2</v>
+      </c>
+      <c r="L63" s="106">
+        <v>1.7999893999999999E-2</v>
+      </c>
+      <c r="M63" s="118">
+        <v>9.7611570999999994E-2</v>
+      </c>
+      <c r="N63" s="103">
+        <v>9.9924396999999998E-2</v>
+      </c>
+      <c r="O63" s="103">
+        <v>3.8949657999999998E-2</v>
+      </c>
+      <c r="P63" s="103">
+        <v>2.8071924000000002E-2</v>
+      </c>
+      <c r="Q63" s="106">
+        <v>2.6924019E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="2:17" ht="15.75" thickBot="1">
+      <c r="B64" s="113" t="s">
+        <v>22</v>
+      </c>
+      <c r="C64" s="119">
+        <v>2.7324848999999998E-2</v>
+      </c>
+      <c r="D64" s="107">
+        <v>2.7938431999999999E-2</v>
+      </c>
+      <c r="E64" s="107">
+        <v>1.4534296E-2</v>
+      </c>
+      <c r="F64" s="107">
+        <v>1.2875545E-2</v>
+      </c>
+      <c r="G64" s="120">
+        <v>1.4217116E-2</v>
+      </c>
+      <c r="H64" s="119">
+        <v>7.5759957000000003E-2</v>
+      </c>
+      <c r="I64" s="107">
+        <v>7.6090890999999994E-2</v>
+      </c>
+      <c r="J64" s="107">
+        <v>3.0181645E-2</v>
+      </c>
+      <c r="K64" s="107">
+        <v>2.6117496E-2</v>
+      </c>
+      <c r="L64" s="120">
+        <v>2.5236941999999998E-2</v>
+      </c>
+      <c r="M64" s="119">
+        <v>0.130883051</v>
+      </c>
+      <c r="N64" s="107">
+        <v>0.133930677</v>
+      </c>
+      <c r="O64" s="107">
+        <v>5.0524352000000002E-2</v>
+      </c>
+      <c r="P64" s="107">
+        <v>3.5648702999999997E-2</v>
+      </c>
+      <c r="Q64" s="120">
+        <v>3.0170117E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" ht="15.75" thickBot="1">
+      <c r="B65" s="115" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" s="110" t="s">
+        <v>23</v>
+      </c>
+      <c r="D65" s="111">
+        <v>1</v>
+      </c>
+      <c r="E65" s="111">
+        <v>2</v>
+      </c>
+      <c r="F65" s="111">
+        <v>3</v>
+      </c>
+      <c r="G65" s="112">
+        <v>4</v>
+      </c>
+      <c r="H65" s="110" t="s">
+        <v>24</v>
+      </c>
+      <c r="I65" s="111">
+        <v>1</v>
+      </c>
+      <c r="J65" s="111">
+        <v>2</v>
+      </c>
+      <c r="K65" s="111">
+        <v>3</v>
+      </c>
+      <c r="L65" s="112">
+        <v>4</v>
+      </c>
+      <c r="M65" s="110" t="s">
+        <v>25</v>
+      </c>
+      <c r="N65" s="111">
+        <v>1</v>
+      </c>
+      <c r="O65" s="111">
+        <v>2</v>
+      </c>
+      <c r="P65" s="111">
+        <v>3</v>
+      </c>
+      <c r="Q65" s="112">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17">
+      <c r="B66" s="122" t="s">
+        <v>19</v>
+      </c>
+      <c r="C66" s="123"/>
+      <c r="D66" s="105">
+        <v>0.94816778530072898</v>
+      </c>
+      <c r="E66" s="105">
+        <v>1.91973030277208</v>
+      </c>
+      <c r="F66" s="105">
+        <v>0.98455559881649202</v>
+      </c>
+      <c r="G66" s="124">
+        <v>0.83211195019955897</v>
+      </c>
+      <c r="H66" s="123"/>
+      <c r="I66" s="105">
+        <v>0.78534318811939596</v>
+      </c>
+      <c r="J66" s="105">
+        <v>1.8952124015523799</v>
+      </c>
+      <c r="K66" s="105">
+        <v>1.69891559185781</v>
+      </c>
+      <c r="L66" s="124">
+        <v>1.4883829139190901</v>
+      </c>
+      <c r="M66" s="123"/>
+      <c r="N66" s="105">
+        <v>0.99566601076463701</v>
+      </c>
+      <c r="O66" s="105">
+        <v>2.1900016830605198</v>
+      </c>
+      <c r="P66" s="105">
+        <v>2.2561639014685602</v>
+      </c>
+      <c r="Q66" s="124">
+        <v>2.2408586215417898</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17">
+      <c r="B67" s="113" t="s">
+        <v>20</v>
+      </c>
+      <c r="C67" s="118"/>
+      <c r="D67" s="103">
+        <v>0.915398997971687</v>
+      </c>
+      <c r="E67" s="103">
+        <v>1.76738590893262</v>
+      </c>
+      <c r="F67" s="103">
+        <v>1.24265261931583</v>
+      </c>
+      <c r="G67" s="106">
+        <v>1.1174740913000001</v>
+      </c>
+      <c r="H67" s="118"/>
+      <c r="I67" s="103">
+        <v>0.98066269284015495</v>
+      </c>
+      <c r="J67" s="103">
+        <v>1.97670696303226</v>
+      </c>
+      <c r="K67" s="103">
+        <v>2.09657776445842</v>
+      </c>
+      <c r="L67" s="106">
+        <v>2.4352257109825901</v>
+      </c>
+      <c r="M67" s="118"/>
+      <c r="N67" s="103">
+        <v>0.958028455989134</v>
+      </c>
+      <c r="O67" s="104">
+        <v>2.3978518747313</v>
+      </c>
+      <c r="P67" s="104">
+        <v>3.0959767151350501</v>
+      </c>
+      <c r="Q67" s="106">
+        <v>3.21031419251978</v>
+      </c>
+    </row>
+    <row r="68" spans="2:17">
+      <c r="B68" s="113" t="s">
+        <v>21</v>
+      </c>
+      <c r="C68" s="118"/>
+      <c r="D68" s="103">
+        <v>0.99077945235088305</v>
+      </c>
+      <c r="E68" s="103">
+        <v>1.72453220511338</v>
+      </c>
+      <c r="F68" s="103">
+        <v>1.8128344131660501</v>
+      </c>
+      <c r="G68" s="106">
+        <v>1.39601416365125</v>
+      </c>
+      <c r="H68" s="118"/>
+      <c r="I68" s="103">
+        <v>0.96978563705840304</v>
+      </c>
+      <c r="J68" s="104">
+        <v>2.2215188471539902</v>
+      </c>
+      <c r="K68" s="103">
+        <v>2.8655483167609499</v>
+      </c>
+      <c r="L68" s="121">
+        <v>3.0367518275385401</v>
+      </c>
+      <c r="M68" s="118"/>
+      <c r="N68" s="103">
+        <v>0.97685424111190799</v>
+      </c>
+      <c r="O68" s="104">
+        <v>2.5060957146273299</v>
+      </c>
+      <c r="P68" s="104">
+        <v>3.4771956136672402</v>
+      </c>
+      <c r="Q68" s="106">
+        <v>3.6254457776158899</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" ht="15.75" thickBot="1">
+      <c r="B69" s="114" t="s">
+        <v>22</v>
+      </c>
+      <c r="C69" s="119"/>
+      <c r="D69" s="107">
+        <v>0.97803803019439295</v>
+      </c>
+      <c r="E69" s="107">
+        <v>1.8800256304123699</v>
+      </c>
+      <c r="F69" s="107">
+        <v>2.1222285347921201</v>
+      </c>
+      <c r="G69" s="120">
+        <v>1.9219684920626701</v>
+      </c>
+      <c r="H69" s="119"/>
+      <c r="I69" s="107">
+        <v>0.99565080661231797</v>
+      </c>
+      <c r="J69" s="108">
+        <v>2.5101334602537402</v>
+      </c>
+      <c r="K69" s="107">
+        <v>2.9007358515532999</v>
+      </c>
+      <c r="L69" s="120">
+        <v>3.0019467889572402</v>
+      </c>
+      <c r="M69" s="119"/>
+      <c r="N69" s="107">
+        <v>0.97724475028226698</v>
+      </c>
+      <c r="O69" s="108">
+        <v>2.5904944015907398</v>
+      </c>
+      <c r="P69" s="108">
+        <v>3.6714674023343798</v>
+      </c>
+      <c r="Q69" s="109">
+        <v>4.3381684930157904</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" ht="15.75" thickBot="1">
+      <c r="B70" s="115" t="s">
+        <v>13</v>
+      </c>
+      <c r="C70" s="110" t="s">
+        <v>23</v>
+      </c>
+      <c r="D70" s="111">
+        <v>1</v>
+      </c>
+      <c r="E70" s="111">
+        <v>2</v>
+      </c>
+      <c r="F70" s="111">
+        <v>3</v>
+      </c>
+      <c r="G70" s="112">
+        <v>4</v>
+      </c>
+      <c r="H70" s="110" t="s">
+        <v>24</v>
+      </c>
+      <c r="I70" s="111">
+        <v>1</v>
+      </c>
+      <c r="J70" s="111">
+        <v>2</v>
+      </c>
+      <c r="K70" s="111">
+        <v>3</v>
+      </c>
+      <c r="L70" s="112">
+        <v>4</v>
+      </c>
+      <c r="M70" s="110" t="s">
+        <v>25</v>
+      </c>
+      <c r="N70" s="111">
+        <v>1</v>
+      </c>
+      <c r="O70" s="111">
+        <v>2</v>
+      </c>
+      <c r="P70" s="111">
+        <v>3</v>
+      </c>
+      <c r="Q70" s="112">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17">
+      <c r="B71" s="122" t="s">
+        <v>19</v>
+      </c>
+      <c r="C71" s="123"/>
+      <c r="D71" s="105">
+        <v>0.94816778530072898</v>
+      </c>
+      <c r="E71" s="105">
+        <v>0.95986515138603801</v>
+      </c>
+      <c r="F71" s="105">
+        <v>0.32818519960549702</v>
+      </c>
+      <c r="G71" s="124">
+        <v>0.20802798754988999</v>
+      </c>
+      <c r="H71" s="123"/>
+      <c r="I71" s="105">
+        <v>0.78534318811939596</v>
+      </c>
+      <c r="J71" s="105">
+        <v>0.94760620077619195</v>
+      </c>
+      <c r="K71" s="105">
+        <v>0.56630519728593798</v>
+      </c>
+      <c r="L71" s="124">
+        <v>0.37209572847977102</v>
+      </c>
+      <c r="M71" s="123"/>
+      <c r="N71" s="105">
+        <v>0.99566601076463701</v>
+      </c>
+      <c r="O71" s="105">
+        <v>1.0950008415302599</v>
+      </c>
+      <c r="P71" s="105">
+        <v>0.75205463382285398</v>
+      </c>
+      <c r="Q71" s="124">
+        <v>0.56021465538544901</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17">
+      <c r="B72" s="113" t="s">
+        <v>20</v>
+      </c>
+      <c r="C72" s="118"/>
+      <c r="D72" s="103">
+        <v>0.915398997971687</v>
+      </c>
+      <c r="E72" s="103">
+        <v>0.88369295446630902</v>
+      </c>
+      <c r="F72" s="103">
+        <v>0.41421753977194298</v>
+      </c>
+      <c r="G72" s="106">
+        <v>0.27936852282500102</v>
+      </c>
+      <c r="H72" s="118"/>
+      <c r="I72" s="103">
+        <v>0.98066269284015495</v>
+      </c>
+      <c r="J72" s="103">
+        <v>0.988353481516131</v>
+      </c>
+      <c r="K72" s="103">
+        <v>0.69885925481947198</v>
+      </c>
+      <c r="L72" s="106">
+        <v>0.60880642774564697</v>
+      </c>
+      <c r="M72" s="118"/>
+      <c r="N72" s="103">
+        <v>0.958028455989134</v>
+      </c>
+      <c r="O72" s="104">
+        <v>1.19892593736565</v>
+      </c>
+      <c r="P72" s="104">
+        <v>1.03199223837835</v>
+      </c>
+      <c r="Q72" s="106">
+        <v>0.802578548129944</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17">
+      <c r="B73" s="113" t="s">
+        <v>21</v>
+      </c>
+      <c r="C73" s="118"/>
+      <c r="D73" s="103">
+        <v>0.99077945235088305</v>
+      </c>
+      <c r="E73" s="103">
+        <v>0.86226610255668801</v>
+      </c>
+      <c r="F73" s="103">
+        <v>0.604278137722016</v>
+      </c>
+      <c r="G73" s="106">
+        <v>0.34900354091281299</v>
+      </c>
+      <c r="H73" s="118"/>
+      <c r="I73" s="103">
+        <v>0.96978563705840304</v>
+      </c>
+      <c r="J73" s="104">
+        <v>1.11075942357699</v>
+      </c>
+      <c r="K73" s="103">
+        <v>0.955182772253649</v>
+      </c>
+      <c r="L73" s="106">
+        <v>0.75918795688463503</v>
+      </c>
+      <c r="M73" s="118"/>
+      <c r="N73" s="103">
+        <v>0.97685424111190799</v>
+      </c>
+      <c r="O73" s="104">
+        <v>1.2530478573136601</v>
+      </c>
+      <c r="P73" s="104">
+        <v>1.1590652045557499</v>
+      </c>
+      <c r="Q73" s="106">
+        <v>0.90636144440397304</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" ht="15.75" thickBot="1">
+      <c r="B74" s="114" t="s">
+        <v>22</v>
+      </c>
+      <c r="C74" s="119"/>
+      <c r="D74" s="107">
+        <v>0.97803803019439295</v>
+      </c>
+      <c r="E74" s="107">
+        <v>0.94001281520618596</v>
+      </c>
+      <c r="F74" s="107">
+        <v>0.70740951159737298</v>
+      </c>
+      <c r="G74" s="120">
+        <v>0.48049212301566602</v>
+      </c>
+      <c r="H74" s="119"/>
+      <c r="I74" s="107">
+        <v>0.99565080661231797</v>
+      </c>
+      <c r="J74" s="108">
+        <v>1.2550667301268701</v>
+      </c>
+      <c r="K74" s="107">
+        <v>0.96691195051776802</v>
+      </c>
+      <c r="L74" s="120">
+        <v>0.75048669723930905</v>
+      </c>
+      <c r="M74" s="119"/>
+      <c r="N74" s="107">
+        <v>0.97724475028226698</v>
+      </c>
+      <c r="O74" s="108">
+        <v>1.2952472007953699</v>
+      </c>
+      <c r="P74" s="108">
+        <v>1.22382246744479</v>
+      </c>
+      <c r="Q74" s="109">
+        <v>1.0845421232539501</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
